--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA93E83-B836-2242-A4C1-217F4ED0F496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="WxXeB7FByJ2Dud0R1zy1DvGroEPBSKUMRywCkc+Lwv4QU6qNVY+qwnMGdWVbgF3ljYzOoMpSDWuRYJ7+waWozA==" workbookSaltValue="cM/ZnQJnKS89rUEW3Xj9kQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED94138-952F-5049-92CA-3F4CD1A793A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ho6sgVIU/zHpAQtLogYhedcpgfRMzeuonaxVQVMn5HdxsRwMkfYRTwi0/nGXowBtKK2cO2EFMbBh+NLbU1N/lQ==" workbookSaltValue="7TYLgV7xCifjsoN/IYqegg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17400" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>1. Start Using VBA</t>
   </si>
   <si>
-    <t>You learn:
-- What is VBA in Excel and some definitions
-- What is a Macro and where you can write your codes
-- How to activate Developr tab and how to go to VB Editor/Window</t>
-  </si>
-  <si>
     <t>VBA Editor</t>
   </si>
   <si>
@@ -72,13 +66,19 @@
 - How to create PERSONAL.XLSB and what is it used for</t>
   </si>
   <si>
+    <t>Three Main Things You Learn</t>
+  </si>
+  <si>
+    <t>You learn:
+- What is VBA in Excel and some definitions
+- What is a Macro and where you can write your codes
+- How to activate Developer tab and how to go to VB Editor/Window</t>
+  </si>
+  <si>
     <t>You learn:
 - What is VB Editor Window
 - What are the main sections of the VB Editor and what are they used for
-- A general introdution to Object Browser and Project Explorer</t>
-  </si>
-  <si>
-    <t>Three Main Things You Learn</t>
+- A general introduction to Object Browser and Project Explorer</t>
   </si>
 </sst>
 </file>
@@ -131,9 +131,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -144,6 +141,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,13 +159,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E7" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B4:E7" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5880127A-F245-FF48-AE40-48088116B48D}" name="Title" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2AD4BB7E-5CE1-4640-8FD1-E2CB9944700C}" name="Three Main Things You Learn" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5880127A-F245-FF48-AE40-48088116B48D}" name="Title" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2AD4BB7E-5CE1-4640-8FD1-E2CB9944700C}" name="Three Main Things You Learn" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -492,7 +492,7 @@
   <dimension ref="B4:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="85" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="85" x14ac:dyDescent="0.2">
@@ -541,10 +541,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="68" x14ac:dyDescent="0.2">
@@ -555,14 +555,14 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OC+1o2i70sHIim5lEOyI8IYSiwgR3Sx4ClyPpwVMZCCsgNM0D09SaT2JZUKf/PE5Jyavw94/5gnXm/yj5pw0Yg==" saltValue="rqF6RWNjwEh7VLs7lJPJ/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5yhLDgncj+NNLltRxNOQC1yQMjdYDUSSqJPGkAzv681PisKJMlpCvnQs2fT6qtGio4u4mUGcny+urTG+tlaR4Q==" saltValue="R3p6RUAwW8Fdz/XBnKXENA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FED94138-952F-5049-92CA-3F4CD1A793A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC141AA1-023B-A546-B647-3140A81B189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ho6sgVIU/zHpAQtLogYhedcpgfRMzeuonaxVQVMn5HdxsRwMkfYRTwi0/nGXowBtKK2cO2EFMbBh+NLbU1N/lQ==" workbookSaltValue="7TYLgV7xCifjsoN/IYqegg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17400" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Page No.</t>
   </si>
@@ -79,6 +79,24 @@
 - What is VB Editor Window
 - What are the main sections of the VB Editor and what are they used for
 - A general introduction to Object Browser and Project Explorer</t>
+  </si>
+  <si>
+    <t>You Learn:
+-VBA Macros can be written in five different types of modules: Standard, Worksheets, Workbook, Class, and User Forms.
+-Each module serves a distinct purpose: ranging from general automation to object-oriented programming and user interaction.
+-Choosing the right module depends on the task: such as handling events, automating workflows, or creating GUIs.</t>
+  </si>
+  <si>
+    <t>Where Can you Write macros?</t>
+  </si>
+  <si>
+    <t>What is an Object in VBA?</t>
+  </si>
+  <si>
+    <t>You Learn:
+- Definition and Use of Objects: Understand that objects represent Excel components like workbooks, worksheets, and ranges, making them the core building blocks of VBA programming.
+- Properties, Methods, and Events: Learn how to access an object’s characteristics (properties), perform actions (methods), and respond to triggers (events).
+- Object Hierarchy: Grasp the VBA object model’s logical structure, which allows for precise navigation and control over Excel’s components.</t>
   </si>
 </sst>
 </file>
@@ -159,8 +177,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E7" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B4:E7" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B4:E9" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="2"/>
@@ -489,10 +507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09076C-4693-F248-8D97-BD79CD5C6CBC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:E7"/>
+  <dimension ref="B4:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,8 +518,8 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="155.6640625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -561,8 +579,35 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="5yhLDgncj+NNLltRxNOQC1yQMjdYDUSSqJPGkAzv681PisKJMlpCvnQs2fT6qtGio4u4mUGcny+urTG+tlaR4Q==" saltValue="R3p6RUAwW8Fdz/XBnKXENA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC141AA1-023B-A546-B647-3140A81B189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F279806-68C1-D34E-8193-CF838A4C490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ho6sgVIU/zHpAQtLogYhedcpgfRMzeuonaxVQVMn5HdxsRwMkfYRTwi0/nGXowBtKK2cO2EFMbBh+NLbU1N/lQ==" workbookSaltValue="7TYLgV7xCifjsoN/IYqegg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
@@ -510,7 +510,7 @@
   <dimension ref="B4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,6 +608,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="73gIkDy2G0S6mrz9ihxVkb1cfAOyaT6mCpFOlZr5WR6z+pOMiAibevOj2ahh6JM8aI2UvB4aF0K1MnsKGbWuSg==" saltValue="4t3cK6dOHdlj9696v2fx/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F279806-68C1-D34E-8193-CF838A4C490E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ho6sgVIU/zHpAQtLogYhedcpgfRMzeuonaxVQVMn5HdxsRwMkfYRTwi0/nGXowBtKK2cO2EFMbBh+NLbU1N/lQ==" workbookSaltValue="7TYLgV7xCifjsoN/IYqegg==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0693CB-7C59-DE4C-AEC8-59C0EF9D94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Page No.</t>
   </si>
@@ -97,6 +96,16 @@
 - Definition and Use of Objects: Understand that objects represent Excel components like workbooks, worksheets, and ranges, making them the core building blocks of VBA programming.
 - Properties, Methods, and Events: Learn how to access an object’s characteristics (properties), perform actions (methods), and respond to triggers (events).
 - Object Hierarchy: Grasp the VBA object model’s logical structure, which allows for precise navigation and control over Excel’s components.</t>
+  </si>
+  <si>
+    <t>Standard or Code Module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You learn:
+- What are Modules, how to create and rename them
+- Scope of Modules: VBA modules are specific to the workbook or project in which they are created unless explicitly shared.
+- Sharing Options: Modules can be shared using exports, Personal Macro Workbooks, Add-Ins, or VBA Project References.
+</t>
   </si>
 </sst>
 </file>
@@ -177,8 +186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B4:E9" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E10" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B4:E10" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="2"/>
@@ -507,10 +516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09076C-4693-F248-8D97-BD79CD5C6CBC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:E9"/>
+  <dimension ref="B4:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -607,8 +616,22 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="2:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="73gIkDy2G0S6mrz9ihxVkb1cfAOyaT6mCpFOlZr5WR6z+pOMiAibevOj2ahh6JM8aI2UvB4aF0K1MnsKGbWuSg==" saltValue="4t3cK6dOHdlj9696v2fx/A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="U8X4WalLRo6dysCk7ax5HZFrVt18ZQQYFuQI4DaIbBQsWxsnrEI3Gwdkd6PcrgkWLPtLYl0eVxsj6PjFQjMvuQ==" saltValue="pOsUq3AawV6ryT7pX+Onxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0693CB-7C59-DE4C-AEC8-59C0EF9D94B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13DB4D-FD19-0C46-9966-6496097147D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Page No.</t>
   </si>
@@ -106,6 +106,15 @@
 - Scope of Modules: VBA modules are specific to the workbook or project in which they are created unless explicitly shared.
 - Sharing Options: Modules can be shared using exports, Personal Macro Workbooks, Add-Ins, or VBA Project References.
 </t>
+  </si>
+  <si>
+    <t>You Learn:
+- Procedure: What is a Procedure, and what are the different types of procedures
+- Scope and Accessibility of Procedures: Public and Private procedures and their difference
+- Procedure Arguments: What are the Required and Optional arguments and what ByRef and ByVal mean?</t>
+  </si>
+  <si>
+    <t>Procedures</t>
   </si>
 </sst>
 </file>
@@ -186,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E10" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B4:E10" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B4:E11" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="2"/>
@@ -516,10 +525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09076C-4693-F248-8D97-BD79CD5C6CBC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:E10"/>
+  <dimension ref="B4:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,8 +639,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="11" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="U8X4WalLRo6dysCk7ax5HZFrVt18ZQQYFuQI4DaIbBQsWxsnrEI3Gwdkd6PcrgkWLPtLYl0eVxsj6PjFQjMvuQ==" saltValue="pOsUq3AawV6ryT7pX+Onxg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="RmRmq5aHo64XCPfJ+Xvc2Rq3ORixODfo8V9srWxD20lQGkqal5CIJtIR75E7vgjUb74gs6BF23w6Pq6wFNq3tw==" saltValue="yW6js7g6ObsvaMBIOMORFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA13DB4D-FD19-0C46-9966-6496097147D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C071E87-78E4-AE4E-A160-3097D37DD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Page No.</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>Procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You Learn:
+- Code Levels: What are Module Level Code and Procedure Level Code
+- Module-level codes: Declarations, procedure definitions, and option statements
+- Procedure-level codes: Statements, variable and constant declarations, comments, and labels </t>
+  </si>
+  <si>
+    <t>VBA Code Categorization</t>
   </si>
 </sst>
 </file>
@@ -195,8 +204,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E11" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B4:E11" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}" name="Table1" displayName="Table1" ref="B4:E12" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B4:E12" xr:uid="{285CE810-A212-864A-96C4-88A7BEFD89BE}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{70109ACE-CEB0-FE46-ADCB-B864E1C11872}" name="Chapter" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{BB08CD61-B80C-5345-A6F9-D8214DD85038}" name="Page No." dataDxfId="2"/>
@@ -525,10 +534,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF09076C-4693-F248-8D97-BD79CD5C6CBC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B4:E11"/>
+  <dimension ref="B4:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,8 +662,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RmRmq5aHo64XCPfJ+Xvc2Rq3ORixODfo8V9srWxD20lQGkqal5CIJtIR75E7vgjUb74gs6BF23w6Pq6wFNq3tw==" saltValue="yW6js7g6ObsvaMBIOMORFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8YvCdO1I0Ww7ZGnPhEiMGeK831u7dJ9Bcw9xTlCGYvLfbdrd6qb1IvsHyZi4Qd/L+6JwsX1WsoJiGH1WqW3rPg==" saltValue="XAdReryeoEYpTvFC+NbuTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/VBAinExcelSnapGuides.xlsx
+++ b/VBAinExcelSnapGuides.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamed/Library/Mobile Documents/com~apple~CloudDocs/2-Website/VBASnapGuide Project/VBAinExcelSnapGuides/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C071E87-78E4-AE4E-A160-3097D37DD997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6083EE84-821F-424D-8063-7332009F671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17340" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{5BA5543B-2A13-D04D-B631-B1A8CA529BA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,10 @@
     <t>Chapter</t>
   </si>
   <si>
-    <t>1. Start Using VBA</t>
-  </si>
-  <si>
     <t>VBA Editor</t>
   </si>
   <si>
     <t>How to record a Macro?</t>
-  </si>
-  <si>
-    <t>You learn:
-- How to record a Macro, its applications and limitations
-- How to store and run the recorded Macros
-- How to create PERSONAL.XLSB and what is it used for</t>
   </si>
   <si>
     <t>Three Main Things You Learn</t>
@@ -124,6 +115,15 @@
   </si>
   <si>
     <t>VBA Code Categorization</t>
+  </si>
+  <si>
+    <t>1. Introduction to VBA in Excel</t>
+  </si>
+  <si>
+    <t>You learn:
+- How to record a Macro, its applications and limitations
+- How to store and run the recorded Macros
+- How to create PERSONAL'S and what is it used for</t>
   </si>
 </sst>
 </file>
@@ -537,13 +537,13 @@
   <dimension ref="B4:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="3"/>
     <col min="4" max="4" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="155.6640625" style="1" customWidth="1"/>
@@ -561,12 +561,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -575,109 +575,109 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="85" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="68" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3">
         <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3">
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="68" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8YvCdO1I0Ww7ZGnPhEiMGeK831u7dJ9Bcw9xTlCGYvLfbdrd6qb1IvsHyZi4Qd/L+6JwsX1WsoJiGH1WqW3rPg==" saltValue="XAdReryeoEYpTvFC+NbuTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="puxUmknvwS+apufi0bFAxB7hlDyd+2EIjSd6XoQI2k5Dej+ptQUhef1akbAIz5NlqdeVPphvKlyzUmfIxj303A==" saltValue="8ZQjmdMsp86WLo3vzUFQ7w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
